--- a/QA_Billing_Project/src/test/resources/TestData.xlsx
+++ b/QA_Billing_Project/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\QA_Legend\QA_Billing_Project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32EC3AD-AD42-4E08-8512-43363DA2CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046086B7-5D87-4E45-B969-24C7A6AD7D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Kitchen" sheetId="2" r:id="rId2"/>
     <sheet name="UserManagement" sheetId="3" r:id="rId3"/>
+    <sheet name="Purchase" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t>mathew@new</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -92,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +404,30 @@
       </c>
       <c r="B2">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4BF967-0C60-45A9-9664-1135D12D75FD}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -486,11 +513,42 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFD9D37-A726-4619-A1BE-DE92F0C5A52D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
